--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192</t>
+    <t>192.4</t>
   </si>
   <si>
     <t>193.10</t>
@@ -729,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -749,7 +749,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -809,7 +809,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -849,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -929,7 +929,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -969,7 +969,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1009,7 +1009,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1049,7 +1049,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1089,7 +1089,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1109,7 +1109,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1129,7 +1129,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1149,7 +1149,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1169,7 +1169,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1180,7 +1180,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>76</v>
@@ -1200,7 +1200,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>76</v>
@@ -1300,7 +1300,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>76</v>
@@ -1340,7 +1340,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>91</v>
@@ -1629,7 +1629,7 @@
         <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1769,7 +1769,7 @@
         <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -1809,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -1929,7 +1929,7 @@
         <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1969,7 +1969,7 @@
         <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -1989,7 +1989,7 @@
         <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false}</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -478,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +499,7 @@
     <col min="4" max="4" width="48.76953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="61.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,105 +521,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -631,2045 +659,2354 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,37 +32,40 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza della Corte d’Appello</t>
+  </si>
+  <si>
+    <t>Dichiarazione di conformità</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.4</t>
+  </si>
+  <si>
+    <t>193.10</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza della Corte d’Appello</t>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.4</t>
-  </si>
-  <si>
-    <t>193.10</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -660,2353 +663,2353 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -113,7 +113,7 @@
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>{evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false}</t>
+    <t>evento.trascrizioneSeparazione.ricevutaDaPrivatoCittadino,=,false</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -502,7 +502,7 @@
     <col min="4" max="4" width="48.76953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="61.6484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="60.265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -1709,7 +1709,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -269,154 +275,160 @@
     <t>nomeNazioneEnte</t>
   </si>
   <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Indirizzo Ente</t>
+  </si>
+  <si>
+    <t>indirizzoEnte</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data comunicazione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneSeparazione</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Tipo richiesta</t>
+  </si>
+  <si>
+    <t>tipoDichiarazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Atto di Matrimonio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.separazione.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Marito</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Moglie</t>
+  </si>
+  <si>
+    <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Sentenza ecclesiastica</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneSeparazione.sentenzaEcclesiastica</t>
+  </si>
+  <si>
     <t>Provincia Ente</t>
   </si>
   <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
     <t>Comune Ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Indirizzo Ente</t>
-  </si>
-  <si>
-    <t>indirizzoEnte</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Data comunicazione</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneSeparazione</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Tipo richiesta</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Atto di Matrimonio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.separazione.attoMatrimonio</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Marito</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Moglie</t>
-  </si>
-  <si>
-    <t>evento.intestatari[1]</t>
-  </si>
-  <si>
-    <t>Sentenza ecclesiastica</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneSeparazione.sentenzaEcclesiastica</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Data</t>
@@ -490,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1019,7 +1031,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -1028,7 +1040,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>33</v>
@@ -1111,7 +1123,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1143,7 +1155,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>33</v>
@@ -1166,7 +1178,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1189,7 +1201,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -1226,7 +1238,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>31</v>
@@ -1235,7 +1247,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>33</v>
@@ -1289,39 +1301,39 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1335,19 +1347,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1358,16 +1370,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
@@ -1381,7 +1393,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>87</v>
@@ -1390,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
@@ -1413,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1427,16 +1439,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1450,19 +1462,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1485,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1508,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,16 +1600,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1611,7 +1623,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1620,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1634,7 +1646,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1643,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1657,7 +1669,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1666,10 +1678,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1979,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2416,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2520,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2589,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2784,19 +2796,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2807,19 +2819,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2830,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2865,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2876,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2899,19 +2911,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2945,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2968,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2991,7 +3003,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>138</v>
@@ -3000,15 +3012,130 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,30 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -502,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2405,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,24 +3142,208 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -128,6 +128,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -182,13 +188,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -880,7 +886,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>33</v>
@@ -917,7 +923,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -926,7 +932,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>33</v>
@@ -963,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -995,7 +1001,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>33</v>
@@ -1018,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>33</v>
@@ -1041,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
@@ -1078,7 +1084,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>31</v>
@@ -1087,7 +1093,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
@@ -1170,7 +1176,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1202,7 +1208,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1225,7 +1231,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -1248,7 +1254,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -1285,7 +1291,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -1294,7 +1300,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>33</v>
@@ -1348,39 +1354,39 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
@@ -1394,19 +1400,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1417,16 +1423,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>88</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
@@ -1449,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1463,7 +1469,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -1472,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1495,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
@@ -1518,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1532,16 +1538,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1578,16 +1584,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1601,16 +1607,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,16 +1653,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1679,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1693,7 +1699,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1702,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1716,7 +1722,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1725,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1739,7 +1745,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1748,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1771,10 +1777,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,7 +1860,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>127</v>
@@ -1863,7 +1869,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>128</v>
@@ -1877,16 +1883,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,16 +3151,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,16 +3174,16 @@
         <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,7 +3197,7 @@
         <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
@@ -3200,7 +3206,7 @@
         <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,24 +3332,93 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="B125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1153,7 +1159,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1162,7 +1168,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -1176,7 +1182,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1208,7 +1214,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1231,7 +1237,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -1254,7 +1260,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -1277,7 +1283,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>33</v>
@@ -1314,7 +1320,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -1323,7 +1329,7 @@
         <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>33</v>
@@ -1377,39 +1383,39 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1446,16 +1452,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>90</v>
@@ -1469,7 +1475,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
@@ -1478,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1501,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
@@ -1524,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
@@ -1547,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1561,16 +1567,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,16 +1613,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1630,16 +1636,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,16 +1682,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1699,7 +1705,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1708,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1731,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1754,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1777,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1791,7 +1797,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
@@ -1800,10 +1806,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>129</v>
@@ -1892,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>130</v>
@@ -1906,16 +1912,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2901,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2924,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2970,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3220,16 +3226,16 @@
         <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3243,16 +3249,16 @@
         <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3266,7 +3272,7 @@
         <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
@@ -3275,7 +3281,7 @@
         <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3401,24 +3407,93 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1191,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>33</v>
@@ -1214,7 +1220,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1237,7 +1243,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -1260,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
@@ -1283,7 +1289,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>33</v>
@@ -1306,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>33</v>
@@ -1343,7 +1349,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
@@ -1352,7 +1358,7 @@
         <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>33</v>
@@ -1406,39 +1412,39 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1475,16 +1481,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -1507,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>94</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
@@ -1530,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
@@ -1553,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
@@ -1576,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1590,16 +1596,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,16 +1642,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1659,16 +1665,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,16 +1711,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1728,7 +1734,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1737,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -1760,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1783,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1797,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
@@ -1806,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>124</v>
@@ -1820,7 +1826,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>125</v>
@@ -1829,10 +1835,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
@@ -1921,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>132</v>
@@ -1935,16 +1941,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>134</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2924,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2947,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2993,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3295,16 +3301,16 @@
         <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3318,16 +3324,16 @@
         <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3341,7 +3347,7 @@
         <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
@@ -3350,7 +3356,7 @@
         <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3367,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3390,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3476,24 +3482,93 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="B131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Sentenza della Corte d’Appello</t>
+    <t>Sentenza della Corte d'Appello</t>
   </si>
   <si>
     <t>Dichiarazione di conformità</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1970,7 +1976,7 @@
         <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>115</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,7 +2614,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>141</v>
@@ -2617,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>142</v>
@@ -2631,7 +2637,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>143</v>
@@ -2640,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>144</v>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>145</v>
@@ -2663,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>146</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,7 +3304,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>141</v>
@@ -3307,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>142</v>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>143</v>
@@ -3330,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>144</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>145</v>
@@ -3353,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>146</v>
@@ -3370,16 +3376,16 @@
         <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,24 +3557,47 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -550,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -950,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>33</v>
@@ -964,7 +976,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -973,7 +985,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>33</v>
@@ -987,7 +999,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -996,7 +1008,7 @@
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -1010,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -1033,7 +1045,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -1042,7 +1054,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>33</v>
@@ -1111,7 +1123,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
@@ -1125,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>31</v>
@@ -1134,7 +1146,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
@@ -1148,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>31</v>
@@ -1157,7 +1169,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
@@ -1171,7 +1183,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1180,7 +1192,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -1194,7 +1206,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1203,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>33</v>
@@ -1226,7 +1238,7 @@
         <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1364,7 +1376,7 @@
         <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>33</v>
@@ -1378,7 +1390,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>31</v>
@@ -1387,7 +1399,7 @@
         <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>33</v>
@@ -1401,7 +1413,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>31</v>
@@ -1410,7 +1422,7 @@
         <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>33</v>
@@ -1441,65 +1453,65 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1522,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1533,16 +1545,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>96</v>
@@ -1556,7 +1568,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
@@ -1565,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
@@ -1579,7 +1591,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
@@ -1588,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>100</v>
@@ -1602,7 +1614,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>101</v>
@@ -1611,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>102</v>
@@ -1625,16 +1637,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>104</v>
@@ -1648,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1671,19 +1683,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,16 +1706,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1717,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,16 +1775,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>120</v>
@@ -1786,7 +1798,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>121</v>
@@ -1795,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>122</v>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>123</v>
@@ -1818,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>124</v>
@@ -1832,7 +1844,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>125</v>
@@ -1841,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>126</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>127</v>
@@ -1864,10 +1876,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1890,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,7 +1982,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>135</v>
@@ -1979,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>136</v>
@@ -1993,16 +2005,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -2016,19 +2028,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2223,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2258,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2327,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2396,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2603,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2626,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2649,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2879,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2936,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2982,19 +2994,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,19 +3017,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3040,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3063,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,19 +3086,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,19 +3109,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3201,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3362,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,19 +3408,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3431,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3454,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3477,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3500,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3523,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3546,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,24 +3592,162 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -101,6 +101,87 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
+  </si>
+  <si>
     <t>Richiedente</t>
   </si>
   <si>
@@ -375,72 +456,6 @@
   </si>
   <si>
     <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Marito</t>
@@ -562,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -847,7 +862,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>33</v>
@@ -861,7 +876,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -884,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -939,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>33</v>
@@ -959,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -973,7 +988,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -982,10 +997,10 @@
         <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>33</v>
@@ -996,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1005,10 +1020,10 @@
         <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
@@ -1019,16 +1034,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1042,16 +1057,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1065,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -1074,7 +1089,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1088,7 +1103,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
@@ -1097,10 +1112,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>33</v>
@@ -1108,19 +1123,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1131,22 +1146,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
@@ -1154,22 +1169,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
@@ -1177,19 +1192,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1200,19 +1215,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1223,22 +1238,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -1246,22 +1261,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -1269,19 +1284,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1292,22 +1307,22 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>33</v>
@@ -1315,19 +1330,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1338,22 +1353,22 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>33</v>
@@ -1361,19 +1376,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1384,669 +1399,669 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -2054,7 +2069,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -2063,7 +2078,7 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2089,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2112,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2158,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2181,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2204,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2250,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2296,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2342,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2733,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2802,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2986,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3009,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3032,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3055,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3078,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3086,19 +3101,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3109,19 +3124,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3132,19 +3147,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3155,19 +3170,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3193,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3216,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3239,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3262,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3285,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3308,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3331,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3354,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3377,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3400,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3423,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,19 +3446,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3469,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3492,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3515,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3538,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3546,19 +3561,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3569,19 +3584,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3607,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3630,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3638,19 +3653,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3676,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3699,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3707,19 +3722,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3730,24 +3745,576 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>22</v>
       </c>
     </row>
